--- a/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha7.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Efna2-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H2">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J2">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.157197849101672</v>
+        <v>0.1532026666666667</v>
       </c>
       <c r="N2">
-        <v>0.157197849101672</v>
+        <v>0.459608</v>
       </c>
       <c r="O2">
-        <v>0.0440230590865162</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="P2">
-        <v>0.0440230590865162</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="Q2">
-        <v>0.1862607713254147</v>
+        <v>0.2157140018142222</v>
       </c>
       <c r="R2">
-        <v>0.1862607713254147</v>
+        <v>1.941426016328</v>
       </c>
       <c r="S2">
-        <v>0.01358761747133612</v>
+        <v>0.01359548291321079</v>
       </c>
       <c r="T2">
-        <v>0.01358761747133612</v>
+        <v>0.0135954829132108</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.18488116974772</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H3">
-        <v>1.18488116974772</v>
+        <v>4.224091</v>
       </c>
       <c r="I3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J3">
-        <v>0.3086477349207626</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.41360918620088</v>
+        <v>0.1693566666666667</v>
       </c>
       <c r="N3">
-        <v>3.41360918620088</v>
+        <v>0.50807</v>
       </c>
       <c r="O3">
-        <v>0.9559769409134837</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="P3">
-        <v>0.9559769409134837</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="Q3">
-        <v>4.044721245607262</v>
+        <v>0.2384593238188889</v>
       </c>
       <c r="R3">
-        <v>4.044721245607262</v>
+        <v>2.14613391437</v>
       </c>
       <c r="S3">
-        <v>0.2950601174494265</v>
+        <v>0.01502901821490272</v>
       </c>
       <c r="T3">
-        <v>0.2950601174494265</v>
+        <v>0.01502901821490272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.00404790960648</v>
+        <v>1.408030333333333</v>
       </c>
       <c r="H4">
-        <v>2.00404790960648</v>
+        <v>4.224091</v>
       </c>
       <c r="I4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="J4">
-        <v>0.5220311232597504</v>
+        <v>0.3454737251382253</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.157197849101672</v>
+        <v>3.570461333333333</v>
       </c>
       <c r="N4">
-        <v>0.157197849101672</v>
+        <v>10.711384</v>
       </c>
       <c r="O4">
-        <v>0.0440230590865162</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="P4">
-        <v>0.0440230590865162</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="Q4">
-        <v>0.3150320208868406</v>
+        <v>5.02731786132711</v>
       </c>
       <c r="R4">
-        <v>0.3150320208868406</v>
+        <v>45.24586075194399</v>
       </c>
       <c r="S4">
-        <v>0.02298140698426442</v>
+        <v>0.3168492240101118</v>
       </c>
       <c r="T4">
-        <v>0.02298140698426442</v>
+        <v>0.3168492240101118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00404790960648</v>
+        <v>2.015377</v>
       </c>
       <c r="H5">
-        <v>2.00404790960648</v>
+        <v>6.046131</v>
       </c>
       <c r="I5">
-        <v>0.5220311232597504</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J5">
-        <v>0.5220311232597504</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.41360918620088</v>
+        <v>0.1532026666666667</v>
       </c>
       <c r="N5">
-        <v>3.41360918620088</v>
+        <v>0.459608</v>
       </c>
       <c r="O5">
-        <v>0.9559769409134837</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="P5">
-        <v>0.9559769409134837</v>
+        <v>0.03935316038222934</v>
       </c>
       <c r="Q5">
-        <v>6.841036353819351</v>
+        <v>0.3087611307386667</v>
       </c>
       <c r="R5">
-        <v>6.841036353819351</v>
+        <v>2.778850176648</v>
       </c>
       <c r="S5">
-        <v>0.499049716275486</v>
+        <v>0.01945982477686539</v>
       </c>
       <c r="T5">
-        <v>0.499049716275486</v>
+        <v>0.01945982477686539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H6">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I6">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J6">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.157197849101672</v>
+        <v>0.1693566666666667</v>
       </c>
       <c r="N6">
-        <v>0.157197849101672</v>
+        <v>0.50807</v>
       </c>
       <c r="O6">
-        <v>0.0440230590865162</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="P6">
-        <v>0.0440230590865162</v>
+        <v>0.04350263745496</v>
       </c>
       <c r="Q6">
-        <v>0.1021808453740771</v>
+        <v>0.3413175307966667</v>
       </c>
       <c r="R6">
-        <v>0.1021808453740771</v>
+        <v>3.07185777717</v>
       </c>
       <c r="S6">
-        <v>0.007454034630915669</v>
+        <v>0.02151170818258602</v>
       </c>
       <c r="T6">
-        <v>0.007454034630915669</v>
+        <v>0.02151170818258603</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.650014271556533</v>
+        <v>2.015377</v>
       </c>
       <c r="H7">
-        <v>0.650014271556533</v>
+        <v>6.046131</v>
       </c>
       <c r="I7">
-        <v>0.1693211418194871</v>
+        <v>0.494492045565236</v>
       </c>
       <c r="J7">
-        <v>0.1693211418194871</v>
+        <v>0.4944920455652361</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.41360918620088</v>
+        <v>3.570461333333333</v>
       </c>
       <c r="N7">
-        <v>3.41360918620088</v>
+        <v>10.711384</v>
       </c>
       <c r="O7">
-        <v>0.9559769409134837</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="P7">
-        <v>0.9559769409134837</v>
+        <v>0.9171442021628107</v>
       </c>
       <c r="Q7">
-        <v>2.218894688547055</v>
+        <v>7.195825650589332</v>
       </c>
       <c r="R7">
-        <v>2.218894688547055</v>
+        <v>64.76243085530399</v>
       </c>
       <c r="S7">
-        <v>0.1618671071885714</v>
+        <v>0.4535205126057846</v>
       </c>
       <c r="T7">
-        <v>0.1618671071885714</v>
+        <v>0.4535205126057846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H8">
+        <v>1.956731</v>
+      </c>
+      <c r="I8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J8">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1532026666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.459608</v>
+      </c>
+      <c r="O8">
+        <v>0.03935316038222934</v>
+      </c>
+      <c r="P8">
+        <v>0.03935316038222934</v>
+      </c>
+      <c r="Q8">
+        <v>0.09992546904977778</v>
+      </c>
+      <c r="R8">
+        <v>0.899329221448</v>
+      </c>
+      <c r="S8">
+        <v>0.006297852692153146</v>
+      </c>
+      <c r="T8">
+        <v>0.006297852692153146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H9">
+        <v>1.956731</v>
+      </c>
+      <c r="I9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J9">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.1693566666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.50807</v>
+      </c>
+      <c r="O9">
+        <v>0.04350263745496</v>
+      </c>
+      <c r="P9">
+        <v>0.04350263745496</v>
+      </c>
+      <c r="Q9">
+        <v>0.1104618132411111</v>
+      </c>
+      <c r="R9">
+        <v>0.99415631917</v>
+      </c>
+      <c r="S9">
+        <v>0.006961911057471255</v>
+      </c>
+      <c r="T9">
+        <v>0.006961911057471255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.6522436666666667</v>
+      </c>
+      <c r="H10">
+        <v>1.956731</v>
+      </c>
+      <c r="I10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="J10">
+        <v>0.1600342292965385</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.570461333333333</v>
+      </c>
+      <c r="N10">
+        <v>10.711384</v>
+      </c>
+      <c r="O10">
+        <v>0.9171442021628107</v>
+      </c>
+      <c r="P10">
+        <v>0.9171442021628107</v>
+      </c>
+      <c r="Q10">
+        <v>2.328810791744889</v>
+      </c>
+      <c r="R10">
+        <v>20.959297125704</v>
+      </c>
+      <c r="S10">
+        <v>0.1467744655469141</v>
+      </c>
+      <c r="T10">
+        <v>0.1467744655469141</v>
       </c>
     </row>
   </sheetData>
